--- a/mapping/claim_payment_mapping.xlsx
+++ b/mapping/claim_payment_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="158">
   <si>
     <t>□</t>
   </si>
@@ -319,6 +319,222 @@
   </si>
   <si>
     <t>1.2.6.</t>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlHi:ClassCode</t>
+  </si>
+  <si>
+    <t>class code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlHi:tableId</t>
+  </si>
+  <si>
+    <t>MML0031</t>
+  </si>
+  <si>
+    <t>openEHR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Archetype</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>data type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-ADMIN_ENTRY.claim.v1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>claim:orderTime</t>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0003]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0004]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>claim:appointTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0005]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0006]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0007]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0008]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_BOOLEAN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0009]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0010]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0011]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0012]/items[at0032]/items[at0013]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0012]/items[at0032]/items[at0033]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0012]/items[at0032]/items[at0034]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>claim:memo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0012]/items[at0014]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlDp:name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name of organisation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlDp:repCode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>Name representation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlDp:tableId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlCm:Id</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlCm:type</t>
+  </si>
+  <si>
+    <t>Identifier type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlCm:tableId</t>
+  </si>
+  <si>
+    <t>mmlCm:checkDigit</t>
+  </si>
+  <si>
+    <t>Identifier check digit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlCm:checkDigitSchema</t>
+  </si>
+  <si>
+    <t>MML0001</t>
+  </si>
+  <si>
+    <t>Identifier check digit schema</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0015]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0015]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0015]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -350,7 +566,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,8 +579,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -424,13 +646,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,6 +683,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -455,13 +713,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,27 +1029,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="15" max="15" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
@@ -798,19 +1069,22 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
@@ -826,22 +1100,34 @@
       <c r="L2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="4" t="s">
         <v>0</v>
       </c>
@@ -854,8 +1140,11 @@
       <c r="L3" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="N3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -892,8 +1181,17 @@
       <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -930,8 +1228,17 @@
       <c r="L5" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="O5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -968,8 +1275,17 @@
       <c r="L6" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="O6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1006,8 +1322,17 @@
       <c r="L7" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="O7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1044,8 +1369,17 @@
       <c r="L8" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="O8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1416,17 @@
       <c r="L9" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="O9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -1120,8 +1463,17 @@
       <c r="L10" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="O10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1158,8 +1510,17 @@
       <c r="L11" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="O11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1196,8 +1557,17 @@
       <c r="L12" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1207,13 +1577,13 @@
       <c r="C13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1240,12 +1610,12 @@
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1258,8 +1628,17 @@
       <c r="L14" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -1296,8 +1675,17 @@
       <c r="L15" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -1334,8 +1722,17 @@
       <c r="L16" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1348,12 +1745,12 @@
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="4" t="s">
         <v>0</v>
       </c>
@@ -1366,8 +1763,17 @@
       <c r="L17" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17" t="s">
+        <v>136</v>
+      </c>
+      <c r="P17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1377,13 +1783,13 @@
       <c r="C18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="4" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1410,12 +1816,12 @@
       <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="4" t="s">
         <v>0</v>
       </c>
@@ -1429,607 +1835,435 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="O20" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="O21" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="O22" s="18"/>
+      <c r="Q22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="O23" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="O26" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="B28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="L28" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="O30" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="O31" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="O32" s="18"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="L33" s="3"/>
+      <c r="O33" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="L36" s="3"/>
+      <c r="O36" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="3" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>10</v>
@@ -2037,13 +2271,16 @@
       <c r="K37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>0</v>
+      <c r="L37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>0</v>
@@ -2051,215 +2288,187 @@
       <c r="C38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>68</v>
+      <c r="D38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="O39" t="s">
+        <v>104</v>
+      </c>
+      <c r="P39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="L42" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L43" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>0</v>
+    <row r="44" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>0</v>
@@ -2267,37 +2476,29 @@
       <c r="C44" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>78</v>
+      <c r="D44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>0</v>
@@ -2305,20 +2506,18 @@
       <c r="C45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
+      <c r="D45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>27</v>
@@ -2327,9 +2526,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>82</v>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>0</v>
@@ -2340,28 +2539,34 @@
       <c r="D46" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="4" t="s">
-        <v>0</v>
+      <c r="E46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>84</v>
+        <v>15</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>0</v>
@@ -2372,28 +2577,34 @@
       <c r="D47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>0</v>
+      <c r="E47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>0</v>
@@ -2401,33 +2612,29 @@
       <c r="C48" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
+      <c r="D48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>0</v>
+    <row r="49" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>0</v>
@@ -2435,37 +2642,29 @@
       <c r="C49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>88</v>
+      <c r="D49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>0</v>
@@ -2473,35 +2672,27 @@
       <c r="C50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>10</v>
+      <c r="D50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>10</v>
@@ -2535,13 +2726,13 @@
       <c r="K51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>92</v>
+      <c r="L51" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>0</v>
@@ -2555,16 +2746,20 @@
       <c r="E52" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
+      <c r="F52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="I52" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>60</v>
+      <c r="J52" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>0</v>
@@ -2573,9 +2768,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>94</v>
+    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>0</v>
@@ -2586,26 +2781,32 @@
       <c r="D53" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="4" t="s">
-        <v>0</v>
+      <c r="E53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>0</v>
       </c>
@@ -2631,19 +2832,19 @@
         <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
@@ -2669,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>15</v>
@@ -2681,97 +2882,737 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="8" t="s">
+      <c r="B74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L56" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+      <c r="L74" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="B75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="D75:H75"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mapping/claim_payment_mapping.xlsx
+++ b/mapping/claim_payment_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="228">
   <si>
     <t>□</t>
   </si>
@@ -325,17 +325,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>class</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>mmlHi:ClassCode</t>
   </si>
   <si>
-    <t>class code</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>mmlHi:tableId</t>
   </si>
   <si>
@@ -534,6 +526,297 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0015]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0015]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0011.1]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0015]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.12]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*)値は"="で固定</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0015]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0015]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0015]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0015]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.14]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0018]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0018]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0018]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0018]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0011.1]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0018]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0018]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.12]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0018]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0018]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0018]/items[openEHR-EHR-CLUSTER.organisation-mml.v1]/items[at0.14]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0063]/items[at0064]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0063]/items[at0065]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mmlHi:classCode</t>
+  </si>
+  <si>
+    <t>mmlHi:classCodeId</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0002]/items[at0063]/items[at0066]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0028]/items[at0022]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0028]/items[at0023]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0024]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0029]/items[at0025]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0029]/items[at0030]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0029]/items[at0031]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0026]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0027]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_COUNT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>claim:bundleNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0036]/items[at0037]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0036]/items[at0038]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0036]/items[at0039]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0036]/items[at0040]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>claim:aliasCode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0036]/items[at0041]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0036]/items[at0042]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>claim:name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>claim:number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0044]/items[at0045]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0044]/items[at0045]/units</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0044]/items[at0046]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0044]/items[at0047]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0043]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>claim:duration</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DURATION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0049]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0050]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0051]/items[at0052]/items[at0053]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0051]/items[at0052]/items[at0054]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0051]/items[at0052]/items[at0067]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>claim:sizeCodeId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0051]/items[at0052]/items[at0055]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0051]/items[at0056]/magnitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0057]/items[at0058]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DV_DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0057]/items[at0060]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0057]/items[at0059]/value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0035]/items[at0061]</t>
+  </si>
+  <si>
+    <t>claim:memo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ADMIN_ENTRY.claim.v1]/data[at0001]/items[at0021]/items[at0062]/value</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -667,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +978,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -711,21 +1018,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1029,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1048,15 +1340,15 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1070,21 +1362,21 @@
         <v>5</v>
       </c>
       <c r="N1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1101,16 +1393,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" t="s">
         <v>108</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>109</v>
-      </c>
-      <c r="P2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -1120,14 +1412,14 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -1185,10 +1477,10 @@
         <v>9</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -1229,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" t="s">
         <v>115</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -1276,13 +1568,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" t="s">
         <v>118</v>
       </c>
-      <c r="P6" t="s">
-        <v>120</v>
-      </c>
       <c r="Q6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -1326,10 +1618,10 @@
         <v>17</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -1373,10 +1665,10 @@
         <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -1420,10 +1712,10 @@
         <v>19</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -1466,11 +1758,11 @@
       <c r="O10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="15" t="s">
-        <v>127</v>
+      <c r="P10" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="Q10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -1514,10 +1806,10 @@
         <v>23</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -1561,10 +1853,10 @@
         <v>24</v>
       </c>
       <c r="P12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" t="s">
         <v>129</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -1577,13 +1869,13 @@
       <c r="C13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1610,12 +1902,12 @@
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1632,10 +1924,10 @@
         <v>29</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -1679,10 +1971,10 @@
         <v>31</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -1726,10 +2018,10 @@
         <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -1745,12 +2037,12 @@
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="4" t="s">
         <v>0</v>
       </c>
@@ -1764,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -1783,13 +2075,13 @@
       <c r="C18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="4" t="s">
         <v>0</v>
       </c>
@@ -1816,12 +2108,12 @@
       <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="4" t="s">
         <v>0</v>
       </c>
@@ -1840,28 +2132,28 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="16" t="s">
-        <v>138</v>
+      <c r="E20" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="16" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="O20" s="17" t="s">
-        <v>139</v>
+      <c r="O20" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1873,24 +2165,24 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="O21" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="O21" s="15" t="s">
-        <v>142</v>
-      </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1903,7 +2195,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
       <c r="I22" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
@@ -1912,9 +2204,9 @@
         <v>15</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="O22" s="18"/>
+      <c r="O22" s="14"/>
       <c r="Q22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1923,7 +2215,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="8"/>
       <c r="E23" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1936,8 +2228,14 @@
         <v>27</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="O23" s="17" t="s">
-        <v>145</v>
+      <c r="O23" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1950,7 +2248,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>10</v>
@@ -1958,11 +2256,17 @@
       <c r="K24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>147</v>
+      <c r="L24" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1975,7 +2279,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
       <c r="I25" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>10</v>
@@ -1984,28 +2288,28 @@
         <v>11</v>
       </c>
       <c r="L25" s="3"/>
+      <c r="Q25" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="O26" s="15" t="s">
-        <v>150</v>
+      <c r="O26" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2018,104 +2322,116 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>0</v>
+      <c r="L27" s="3"/>
+      <c r="O27" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="P27" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="B30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="4"/>
-      <c r="O30" s="17" t="s">
-        <v>139</v>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -2123,22 +2439,28 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>11</v>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="O31" s="15" t="s">
-        <v>142</v>
+      <c r="O31" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -2150,67 +2472,80 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>15</v>
+      <c r="I32" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="O32" s="18"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O32" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="J33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="O33" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="O33" s="14"/>
+      <c r="Q33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="O34" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="P34" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2220,7 +2555,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
       <c r="I35" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>10</v>
@@ -2228,9 +2563,20 @@
       <c r="K35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L35" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2240,561 +2586,627 @@
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
       <c r="I36" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L36" s="3"/>
-      <c r="O36" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="3" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="O37" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" t="s">
-        <v>102</v>
+      <c r="L38" s="3"/>
+      <c r="O38" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="P38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>43</v>
+      </c>
+      <c r="P40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="O41" t="s">
+        <v>178</v>
+      </c>
+      <c r="P41" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="J42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="O39" t="s">
+      <c r="L42" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+      <c r="O42" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
+      <c r="L43" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="3" t="s">
+      <c r="J44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="L44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>47</v>
+      </c>
+      <c r="P44" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="J45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+      <c r="L45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="B46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="3" t="s">
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L44" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="L46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>50</v>
+      </c>
+      <c r="P46" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="B47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="3" t="s">
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="L47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="3" t="s">
+      <c r="J48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="3" t="s">
+      <c r="J49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+      <c r="L49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="B50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+      <c r="L50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>57</v>
+      </c>
+      <c r="P50" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="B51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+      <c r="L51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>192</v>
+      </c>
+      <c r="P51" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="B52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3" t="s">
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="L52" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>10</v>
@@ -2802,11 +3214,20 @@
       <c r="K53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>0</v>
       </c>
@@ -2832,83 +3253,101 @@
         <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="3" t="s">
+      <c r="J55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="L55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>10</v>
@@ -2919,8 +3358,17 @@
       <c r="L56" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O56" t="s">
+        <v>67</v>
+      </c>
+      <c r="P56" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>10</v>
@@ -2957,136 +3405,172 @@
       <c r="L57" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+      <c r="O57" t="s">
+        <v>198</v>
+      </c>
+      <c r="P57" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>69</v>
+      </c>
+      <c r="P58" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="B59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>201</v>
+      </c>
+      <c r="P59" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="B60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
+      <c r="L60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>202</v>
+      </c>
+      <c r="P60" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>10</v>
@@ -3094,11 +3578,20 @@
       <c r="K61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P61" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>0</v>
       </c>
@@ -3124,106 +3617,139 @@
         <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>75</v>
+      </c>
+      <c r="P62" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="3" t="s">
+      <c r="J63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L62" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+      <c r="L63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>202</v>
+      </c>
+      <c r="P63" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="9" t="s">
+      <c r="B64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="3" t="s">
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L63" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+      <c r="L64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>209</v>
+      </c>
+      <c r="P64" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="9" t="s">
+      <c r="B65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="19"/>
       <c r="I65" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>0</v>
+      <c r="J65" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>30</v>
@@ -3231,106 +3757,118 @@
       <c r="L65" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O65" t="s">
+        <v>83</v>
+      </c>
+      <c r="P65" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9" t="s">
+      <c r="B67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I67" s="3" t="s">
+      <c r="G67" s="18"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>87</v>
+      </c>
+      <c r="P67" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>10</v>
@@ -3338,11 +3876,20 @@
       <c r="K68" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L68" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>0</v>
       </c>
@@ -3368,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>10</v>
@@ -3379,138 +3926,174 @@
       <c r="L69" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
+      <c r="O69" t="s">
+        <v>217</v>
+      </c>
+      <c r="P69" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>91</v>
+      </c>
+      <c r="P70" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9" t="s">
+      <c r="B71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3" t="s">
+      <c r="G71" s="18"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
+      <c r="K71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>93</v>
+      </c>
+      <c r="P71" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="9" t="s">
+      <c r="B72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" s="3" t="s">
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L71" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="L72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>95</v>
+      </c>
+      <c r="P72" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>97</v>
@@ -3521,56 +4104,82 @@
       <c r="L73" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
+      <c r="O73" t="s">
+        <v>96</v>
+      </c>
+      <c r="P73" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>98</v>
+      </c>
+      <c r="P74" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="9" t="s">
+      <c r="B75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="11"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="19"/>
       <c r="I75" s="4" t="s">
         <v>0</v>
       </c>
@@ -3583,36 +4192,84 @@
       <c r="L75" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="O75" t="s">
+        <v>226</v>
+      </c>
+      <c r="P75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>226</v>
+      </c>
+      <c r="P76" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E60:H60"/>
     <mergeCell ref="E64:H64"/>
     <mergeCell ref="E65:H65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F71:H71"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="E19:H19"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
